--- a/biology/Botanique/Jardin_des_simples_de_Florence/Jardin_des_simples_de_Florence.xlsx
+++ b/biology/Botanique/Jardin_des_simples_de_Florence/Jardin_des_simples_de_Florence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des simples de Florence est un département du Musée d'histoire naturelle de l'Université de Florence. Il est situé au 3 via Micheli à Florence en Toscane.
@@ -514,7 +526,9 @@
           <t>Aperçu historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le Moyen Âge, les simples – variétés végétales aux vertus médicinales – sont cultivées dans des jardins urbains. Au XVIe siècle, l’intérêt pour l'étude du monde naturel s'intensifiant, le duc Cosme Ier de Médicis voulut un jardin académique pour compléter les leçons des étudiants de la faculté de médecine. La date officielle de la fondation du jardin peut être fixée au 1er décembre 1545, date du contrat de location conclu avec les sœurs dominicaines qui cédèrent un terrain situé dans la localité de Cafaggio, près des étables des Médicis, dont il prit le nom. Le jardin florentin peut être considéré comme le troisième au monde par son ancienneté, après le jardin botanique de Pise et celui de Padoue. 
 Il fut dessiné par Niccolò Tribolo et le choix des plantes et leur arrangement sont dus à Luca Ghini. Le jardin connut une période de splendeur vers la fin du siècle sous la direction de Giuseppe Casabona, qui sut l'enrichir de nombreuses plantes rares. Au cours du XVIIe siècle, l'activité de Paolo Boccone et d'autres botanistes et jardiniers donna au jardin une certaine autonomie, bien que le jardin botanique de Santa Maria Nuova et celui de Pise aient joué un rôle scientifique bien plus important. 
@@ -547,25 +561,17 @@
           <t>Structure et collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a une superficie de 2,3 hectares, dont 1 694 m2 sont occupés par des serres. Le dessin des plantes-bandes rappelle aussi bien le modèle de l’Hortus conclusus médiéval consacré à la culture des herbes médicinales et aromatiques que le schéma du jardin secret de la villa de la Renaissance.
 Le bâtiment principal, qui occupe tout le côté le long de la via Micheli, abrite les bureaux, la bibliothèque, un laboratoire et les serres. L'édifice, construit sur un plan rectangulaire a deux ailes constituées par les serres, la partie centrale abritant les structures organisatives. Cinq autres serres, en verre et métal, sont situées dans le jardin. Ce sont des serres froides ou chaudes qui hébergent des collections de fougères, plantes épiphytes, bégonias, broméliacées. 
-Du bâtiment central, on accède à la terrasse, couverte de deux pergolas en fer supportant des rosiers grimpants, de laquelle, par l'intermédiaire d'un escalier en pierre grise de Florence (pietra serena[1]), on descend au jardin ; l'escalier est flanqué de deux buissons de Feijoa sellowiana et Stranvaesia, taillés en formes géométriques. Toutes les allées sont pavées de galets tandis que les plates-bandes sont délimitées par des bordures basses en pierre. Les bancs et les tables de la butte sont également en pierre, mais les décors sont en fer.
+Du bâtiment central, on accède à la terrasse, couverte de deux pergolas en fer supportant des rosiers grimpants, de laquelle, par l'intermédiaire d'un escalier en pierre grise de Florence (pietra serena), on descend au jardin ; l'escalier est flanqué de deux buissons de Feijoa sellowiana et Stranvaesia, taillés en formes géométriques. Toutes les allées sont pavées de galets tandis que les plates-bandes sont délimitées par des bordures basses en pierre. Les bancs et les tables de la butte sont également en pierre, mais les décors sont en fer.
 Dans une niche du mur faisant face à l'entrée de la via La Pira, se trouve un buste en marbre d'Esculape. Son auteur est le sculpteur Antonio Gino Lorenzi de Settignano (seconde moitié du XVIe siècle).
 Au centre du jardin se trouve une fontaine en pierre, avec un jet central représentant un putto. Le bassin a environ quatre mètres de diamètre et accueille des plantes aquatiques et des poissons rouges. 
 Outre la fontaine centrale, dont le rôle est essentiellement décoratif, il y a de nombreux bassins : à droite de l'entrée se trouve un bassin en ciment peuplé de nénuphars, et quatre autres bassins situés dans la butte hébergent des collections de plantes aquatiques.
 On accède aux grandes serres à partir du jardin. À l'intérieur se trouvent un petit bassin et quatre rochers humides avec des plants de philodendron et diverses plantes hygrophiles, dont les cheveux-de-Vénus. 
-Pré des conifères
-Vaste zone de prairie, en partie en plaine et en partie en légère pente, dans laquelle se trouvent des conifères remarquables par leurs dimensions et leur âge, et des plantes bulbeuses à floraison printanière.
-Plate-bande des Arécacées
-C'est une plate-bande consacrée à l'acclimatation en plein air de diverses espèces de palmiers.
-Plate-bande des plantes alimentaires et  des plantes officinales
-Zone consacrée aux plantes cultivées pour l'alimentation humaine et aux plantes médicinales spontanées et naturalisées en Toscane.
-Plate-bande du jardin à l'italienne
-Elle accueille un petit parterre délimité par du buis Buxus sempervirens, réalisé pour rappeler symboliquement l'ancienne tradition du jardin à l'italienne.
-Zone du lac
-Un petit plan d'eau bordé de lierre héberge des plants de lotus (Nelumbo nucifera) ; dans le même secteur on a construit une rocaille qui reconstitue le milieu des Alpes apuanes et une rocaille en serpentine pour abriter la flore endémique de ces milieux.
 </t>
         </is>
       </c>
@@ -591,10 +597,197 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pré des conifères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaste zone de prairie, en partie en plaine et en partie en légère pente, dans laquelle se trouvent des conifères remarquables par leurs dimensions et leur âge, et des plantes bulbeuses à floraison printanière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plate-bande des Arécacées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plate-bande consacrée à l'acclimatation en plein air de diverses espèces de palmiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plate-bande des plantes alimentaires et  des plantes officinales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zone consacrée aux plantes cultivées pour l'alimentation humaine et aux plantes médicinales spontanées et naturalisées en Toscane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plate-bande du jardin à l'italienne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle accueille un petit parterre délimité par du buis Buxus sempervirens, réalisé pour rappeler symboliquement l'ancienne tradition du jardin à l'italienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure et collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Zone du lac</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un petit plan d'eau bordé de lierre héberge des plants de lotus (Nelumbo nucifera) ; dans le même secteur on a construit une rocaille qui reconstitue le milieu des Alpes apuanes et une rocaille en serpentine pour abriter la flore endémique de ces milieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_simples_de_Florence</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Espèces présentes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le patrimoine végétal du jardin est actuellement constitué d'environ 9 000 exemplaires de plantes.
 Dans le pré des conifères, il convient de signaler Taxodium distichum et un Metasequoia glyptostroboides. Parmi les plantes les plus anciennes, un chêne-liège (Quercus suber) planté en 1805 par Ottaviano Targioni Tozzetti, directeur de l'époque,  et un if (Taxus baccata) planté en 1720 par Pier Antonio Micheli. Il y a également un Zelkova serrata séculaire.
